--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -1371,6 +1371,12 @@
       <c r="F7" t="s">
         <v>180</v>
       </c>
+      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2144,6 +2150,12 @@
       </c>
       <c r="F37" t="s">
         <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-15</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -1190,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3232,22 +3232,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3258,19 +3258,19 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
         <v>252</v>
@@ -3284,19 +3284,19 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="F81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="H81" t="s">
         <v>252</v>
@@ -3310,19 +3310,19 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H82" t="s">
         <v>252</v>
@@ -3336,22 +3336,22 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3362,22 +3362,22 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G84" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3388,22 +3388,22 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="F85" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3414,22 +3414,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3440,22 +3440,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3466,22 +3466,16 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
-      </c>
-      <c r="G88" t="s">
-        <v>271</v>
-      </c>
-      <c r="H88" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3492,16 +3486,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F89" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="G89" t="s">
+        <v>250</v>
+      </c>
+      <c r="H89" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3512,19 +3512,19 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
         <v>252</v>
@@ -3538,19 +3538,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H91" t="s">
         <v>252</v>
@@ -3564,19 +3564,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="G92" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s">
         <v>252</v>
@@ -3590,19 +3590,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H93" t="s">
         <v>252</v>
@@ -3616,19 +3616,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H94" t="s">
         <v>252</v>
@@ -3642,19 +3642,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="H95" t="s">
         <v>252</v>
@@ -3668,19 +3668,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H96" t="s">
         <v>252</v>
@@ -3694,22 +3694,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3720,22 +3720,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H98" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3746,19 +3746,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
         <v>252</v>
@@ -3772,22 +3772,16 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" t="s">
-        <v>272</v>
-      </c>
-      <c r="H100" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3798,41 +3792,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" t="s">
         <v>232</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G101" t="s">
         <v>235</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H101" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220415_180611.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -763,16 +763,13 @@
     <t>물고기뮤직</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SSK</t>
   </si>
   <si>
     <t>스윙</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -1271,7 +1268,7 @@
         <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1349,7 +1346,7 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1375,7 +1372,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1427,7 +1424,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1453,7 +1450,7 @@
         <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1505,7 +1502,7 @@
         <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1531,7 +1528,7 @@
         <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1557,7 +1554,7 @@
         <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1583,7 +1580,7 @@
         <v>243</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1609,7 +1606,7 @@
         <v>244</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1635,7 +1632,7 @@
         <v>245</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1661,7 +1658,7 @@
         <v>246</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1687,7 +1684,7 @@
         <v>247</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1713,7 +1710,7 @@
         <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1739,7 +1736,7 @@
         <v>248</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1765,7 +1762,7 @@
         <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1817,7 +1814,7 @@
         <v>250</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1843,7 +1840,7 @@
         <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1869,7 +1866,7 @@
         <v>247</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1947,7 +1944,7 @@
         <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1970,10 +1967,10 @@
         <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1999,7 +1996,7 @@
         <v>240</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2025,7 +2022,7 @@
         <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2100,10 +2097,10 @@
         <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2126,10 +2123,10 @@
         <v>193</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2155,7 +2152,7 @@
         <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2178,10 +2175,10 @@
         <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2256,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2282,10 +2279,10 @@
         <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2334,10 +2331,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2360,10 +2357,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2389,7 +2386,7 @@
         <v>247</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2415,7 +2412,7 @@
         <v>247</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2441,7 +2438,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2464,10 +2461,10 @@
         <v>200</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2493,7 +2490,7 @@
         <v>249</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2545,7 +2542,7 @@
         <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2571,7 +2568,7 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2597,7 +2594,7 @@
         <v>249</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2620,10 +2617,10 @@
         <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2672,10 +2669,10 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2701,7 +2698,7 @@
         <v>249</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2724,10 +2721,10 @@
         <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2753,7 +2750,7 @@
         <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2779,7 +2776,7 @@
         <v>246</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2802,10 +2799,10 @@
         <v>207</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2831,7 +2828,7 @@
         <v>249</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2854,10 +2851,10 @@
         <v>208</v>
       </c>
       <c r="G64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2935,7 +2932,7 @@
         <v>246</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2958,10 +2955,10 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2987,7 +2984,7 @@
         <v>249</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3013,7 +3010,7 @@
         <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3039,7 +3036,7 @@
         <v>247</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3065,7 +3062,7 @@
         <v>241</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3088,10 +3085,10 @@
         <v>211</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3114,10 +3111,10 @@
         <v>212</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3140,10 +3137,10 @@
         <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3166,10 +3163,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3192,10 +3189,10 @@
         <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3221,7 +3218,7 @@
         <v>240</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3244,10 +3241,10 @@
         <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3270,10 +3267,10 @@
         <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3299,7 +3296,7 @@
         <v>247</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3322,10 +3319,10 @@
         <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3429,7 +3426,7 @@
         <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3452,10 +3449,10 @@
         <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3501,7 +3498,7 @@
         <v>250</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3527,7 +3524,7 @@
         <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3553,7 +3550,7 @@
         <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3579,7 +3576,7 @@
         <v>249</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3602,10 +3599,10 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3628,10 +3625,10 @@
         <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3657,7 +3654,7 @@
         <v>239</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3680,10 +3677,10 @@
         <v>229</v>
       </c>
       <c r="G96" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3735,7 +3732,7 @@
         <v>241</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3758,10 +3755,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8">
